--- a/xlsx/公盟_intext.xlsx
+++ b/xlsx/公盟_intext.xlsx
@@ -29,7 +29,7 @@
     <t>北京大学</t>
   </si>
   <si>
-    <t>政策_政策_智庫_公盟</t>
+    <t>政策_政策_智库_公盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%B8%E5%BF%97%E6%B0%B8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%B9%B3_(%E5%AD%B8%E8%80%85)</t>
   </si>
   <si>
-    <t>江平 (學者)</t>
+    <t>江平 (学者)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E4%BA%8E%E8%BD%BC</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%BB%BA%E5%8B%9B</t>
   </si>
   <si>
-    <t>王建勛</t>
+    <t>王建勋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%88%A9%E5%B9%B3</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E8%8F%AF</t>
   </si>
   <si>
-    <t>李華</t>
+    <t>李华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B7%80%E5%8C%BA</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%BD%E8%AD%89%E6%9C%83</t>
   </si>
   <si>
-    <t>聽證會</t>
+    <t>听证会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%94%BF%E5%B1%80</t>
